--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://greatsoutherngrammar-my.sharepoint.com/personal/alec_mcdonald_student_gsg_wa_edu_au/Documents/.Year 12/Computer Science/Task_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="406" documentId="8_{F692BF82-639A-4F3A-941B-6513C3EADAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E5C3311-9BC4-4BCC-9341-3412BD8889AA}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{F692BF82-639A-4F3A-941B-6513C3EADAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A70E8124-7E3C-4589-93FD-11AE13713F75}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1680" windowWidth="29040" windowHeight="15720" xr2:uid="{26C15825-70F9-49D6-92B9-A3C016835732}"/>
   </bookViews>
@@ -597,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -623,82 +623,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,14 +723,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -764,7 +761,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84C40D24-8908-44B2-9D40-D6618DBC34F3}" name="Table3" displayName="Table3" ref="B1:G44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84C40D24-8908-44B2-9D40-D6618DBC34F3}" name="Table3" displayName="Table3" ref="B1:G44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7">
   <autoFilter ref="B1:G44" xr:uid="{84C40D24-8908-44B2-9D40-D6618DBC34F3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A4367B5B-965B-46FC-A518-33619F476873}" name="Data Element" dataDxfId="5"/>
@@ -1097,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FDFAA7-CB3C-45E8-8ECF-2BB0162123F2}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1133,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1159,7 +1156,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1180,7 +1177,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1203,7 +1200,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1221,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1242,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1263,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,43 +1284,43 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1331,20 +1328,20 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1">
         <v>16</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1352,20 +1349,20 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1373,7 +1370,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1394,7 +1391,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1417,7 +1414,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1438,30 +1435,30 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="D16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1482,7 +1479,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1505,7 +1502,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1526,7 +1523,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1547,7 +1544,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1568,7 +1565,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1586,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1602,7 +1599,7 @@
       <c r="E23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1610,7 +1607,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1631,7 +1628,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1652,7 +1649,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1675,7 +1672,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1696,7 +1693,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1717,7 +1714,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1740,7 +1737,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
@@ -1761,7 +1758,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1782,7 +1779,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1803,7 +1800,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1821,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,7 +1842,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1863,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1889,7 +1886,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1910,20 +1907,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1931,132 +1928,132 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="D39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="27" t="s">
+      <c r="C40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="28" t="s">
+      <c r="E40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="D41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="D42" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="21" t="s">
+      <c r="D43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="23" t="s">
+      <c r="C44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>48</v>
       </c>
     </row>
